--- a/assets/template/import/peminjaman.xlsx
+++ b/assets/template/import/peminjaman.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Data Peminjaman</t>
   </si>
@@ -35,13 +35,19 @@
     <t>Kode Buku</t>
   </si>
   <si>
-    <t>KOP-123</t>
-  </si>
-  <si>
-    <t>TR-123</t>
-  </si>
-  <si>
     <t>No. Buku</t>
+  </si>
+  <si>
+    <t>TES-098</t>
+  </si>
+  <si>
+    <t>TES-123</t>
+  </si>
+  <si>
+    <t>123-CON</t>
+  </si>
+  <si>
+    <t>123-09</t>
   </si>
 </sst>
 </file>
@@ -131,13 +137,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,7 +429,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,29 +440,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>45</v>
@@ -464,10 +470,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10204064</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -475,10 +481,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10204064</v>
+        <v>1234</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -486,10 +492,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>3030301</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>12</v>

--- a/assets/template/import/peminjaman.xlsx
+++ b/assets/template/import/peminjaman.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Data Peminjaman</t>
   </si>
@@ -36,18 +36,6 @@
   </si>
   <si>
     <t>No. Buku</t>
-  </si>
-  <si>
-    <t>TES-098</t>
-  </si>
-  <si>
-    <t>TES-123</t>
-  </si>
-  <si>
-    <t>123-CON</t>
-  </si>
-  <si>
-    <t>123-09</t>
   </si>
 </sst>
 </file>
@@ -426,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,50 +445,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1234</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3030301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
